--- a/TeamAustinMichaelOscarTarikReport_Sprint_2.xlsx
+++ b/TeamAustinMichaelOscarTarikReport_Sprint_2.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike's PC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{060C36E6-E0A1-46DF-9B3D-577E6603641F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9061671-B652-41D1-9DF6-9D35C9634FAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="832" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="6360" tabRatio="832" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
-    <sheet name="Stories" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
+    <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
+  <oleSize ref="A32:B37"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -929,11 +926,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2200,11 +2197,11 @@
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="18" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="16"/>
@@ -2294,13 +2291,507 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2475,7 +2966,7 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -2687,6 +3178,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7905F305-4E42-4050-9605-E06403ACA35D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G19"/>
@@ -2881,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F4"/>
@@ -2988,12 +3491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3281,7 +3784,7 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -3485,13 +3988,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3670,7 +4173,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3784,7 +4287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I1"/>
@@ -3830,7 +4333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I1"/>
@@ -3874,498 +4377,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
 </file>
--- a/TeamAustinMichaelOscarTarikReport_Sprint_2.xlsx
+++ b/TeamAustinMichaelOscarTarikReport_Sprint_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9061671-B652-41D1-9DF6-9D35C9634FAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6A750304-F19D-4A40-8495-DF39FB764EE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="6360" tabRatio="832" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="6720" tabRatio="832" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2296,8 +2296,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="150" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
